--- a/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
+++ b/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'MCU_1 20ms'!$U$7:$V$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'MCU_2 50ms'!$U$7:$V$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'MCU_3 20ms'!$U$7:$V$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TxRxMatrix!$T$2:$Z$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TxRxMatrix!$T$2:$Z$53</definedName>
     <definedName name="A" localSheetId="6">#REF!</definedName>
     <definedName name="A" localSheetId="12">#REF!</definedName>
     <definedName name="A" localSheetId="8">#REF!</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="349">
   <si>
     <t>(In-vehicle Controller Area Network)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3190,6 +3190,26 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机工作状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开关状态有效性</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -23405,10 +23425,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z92"/>
+  <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24235,7 +24255,7 @@
       </c>
     </row>
     <row r="28" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T28" s="140"/>
+      <c r="T28" s="138"/>
       <c r="U28" s="139" t="s">
         <v>338</v>
       </c>
@@ -24254,7 +24274,7 @@
     <row r="29" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T29" s="140"/>
       <c r="U29" s="139" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="V29" s="146" t="s">
         <v>286</v>
@@ -24263,17 +24283,15 @@
       <c r="X29" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="Y29" s="146" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y29" s="147"/>
       <c r="Z29" s="146" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T30" s="140"/>
-      <c r="U30" s="145" t="s">
-        <v>341</v>
+      <c r="U30" s="139" t="s">
+        <v>339</v>
       </c>
       <c r="V30" s="146" t="s">
         <v>286</v>
@@ -24282,7 +24300,9 @@
       <c r="X30" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="146"/>
+      <c r="Y30" s="146" t="s">
+        <v>101</v>
+      </c>
       <c r="Z30" s="146" t="s">
         <v>101</v>
       </c>
@@ -24290,7 +24310,7 @@
     <row r="31" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T31" s="140"/>
       <c r="U31" s="145" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V31" s="146" t="s">
         <v>286</v>
@@ -24299,15 +24319,15 @@
       <c r="X31" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="Y31" s="147"/>
+      <c r="Y31" s="146"/>
       <c r="Z31" s="146" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T32" s="140"/>
-      <c r="U32" s="139" t="s">
-        <v>336</v>
+      <c r="U32" s="145" t="s">
+        <v>340</v>
       </c>
       <c r="V32" s="146" t="s">
         <v>286</v>
@@ -24324,7 +24344,7 @@
     <row r="33" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T33" s="140"/>
       <c r="U33" s="139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V33" s="146" t="s">
         <v>286</v>
@@ -24339,30 +24359,28 @@
       </c>
     </row>
     <row r="34" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T34" s="141" t="s">
-        <v>284</v>
-      </c>
-      <c r="U34" s="148" t="s">
-        <v>319</v>
+      <c r="T34" s="140"/>
+      <c r="U34" s="139" t="s">
+        <v>337</v>
       </c>
       <c r="V34" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="W34" s="146"/>
+      <c r="W34" s="147"/>
       <c r="X34" s="146" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y34" s="146" t="s">
         <v>285</v>
       </c>
+      <c r="Y34" s="147"/>
       <c r="Z34" s="146" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T35" s="141"/>
+      <c r="T35" s="141" t="s">
+        <v>284</v>
+      </c>
       <c r="U35" s="148" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="V35" s="146" t="s">
         <v>286</v>
@@ -24381,85 +24399,85 @@
     <row r="36" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T36" s="141"/>
       <c r="U36" s="148" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="V36" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147" t="s">
-        <v>346</v>
+      <c r="W36" s="146"/>
+      <c r="X36" s="146" t="s">
+        <v>288</v>
       </c>
       <c r="Y36" s="146" t="s">
         <v>285</v>
       </c>
       <c r="Z36" s="146" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T37" s="144" t="s">
-        <v>289</v>
-      </c>
+      <c r="T37" s="141"/>
       <c r="U37" s="148" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="V37" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147" t="s">
-        <v>345</v>
+      <c r="W37" s="146"/>
+      <c r="X37" s="146" t="s">
+        <v>288</v>
       </c>
       <c r="Y37" s="146" t="s">
         <v>285</v>
       </c>
       <c r="Z37" s="146" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T38" s="143"/>
+      <c r="T38" s="141"/>
       <c r="U38" s="148" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="V38" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W38" s="147"/>
-      <c r="X38" s="146" t="s">
-        <v>286</v>
+      <c r="X38" s="147" t="s">
+        <v>346</v>
       </c>
       <c r="Y38" s="146" t="s">
         <v>285</v>
       </c>
       <c r="Z38" s="146" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T39" s="143"/>
+      <c r="T39" s="144" t="s">
+        <v>289</v>
+      </c>
       <c r="U39" s="148" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="V39" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W39" s="147"/>
-      <c r="X39" s="146" t="s">
-        <v>286</v>
+      <c r="X39" s="147" t="s">
+        <v>345</v>
       </c>
       <c r="Y39" s="146" t="s">
         <v>285</v>
       </c>
       <c r="Z39" s="146" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T40" s="143"/>
       <c r="U40" s="148" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="V40" s="146" t="s">
         <v>286</v>
@@ -24478,33 +24496,33 @@
     <row r="41" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T41" s="143"/>
       <c r="U41" s="148" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="V41" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W41" s="147"/>
-      <c r="X41" s="147" t="s">
-        <v>345</v>
+      <c r="X41" s="146" t="s">
+        <v>286</v>
       </c>
       <c r="Y41" s="146" t="s">
         <v>285</v>
       </c>
       <c r="Z41" s="146" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T42" s="143"/>
       <c r="U42" s="148" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="V42" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W42" s="147"/>
-      <c r="X42" s="147" t="s">
-        <v>345</v>
+      <c r="X42" s="146" t="s">
+        <v>286</v>
       </c>
       <c r="Y42" s="146" t="s">
         <v>285</v>
@@ -24516,13 +24534,15 @@
     <row r="43" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T43" s="143"/>
       <c r="U43" s="148" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="V43" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
+      <c r="X43" s="147" t="s">
+        <v>345</v>
+      </c>
       <c r="Y43" s="146" t="s">
         <v>285</v>
       </c>
@@ -24533,13 +24553,15 @@
     <row r="44" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T44" s="143"/>
       <c r="U44" s="148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V44" s="146" t="s">
         <v>286</v>
       </c>
       <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
+      <c r="X44" s="147" t="s">
+        <v>345</v>
+      </c>
       <c r="Y44" s="146" t="s">
         <v>285</v>
       </c>
@@ -24550,7 +24572,7 @@
     <row r="45" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T45" s="143"/>
       <c r="U45" s="148" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="V45" s="146" t="s">
         <v>286</v>
@@ -24561,13 +24583,13 @@
         <v>285</v>
       </c>
       <c r="Z45" s="146" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T46" s="143"/>
       <c r="U46" s="148" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="V46" s="146" t="s">
         <v>286</v>
@@ -24578,13 +24600,13 @@
         <v>285</v>
       </c>
       <c r="Z46" s="146" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T47" s="143"/>
       <c r="U47" s="148" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="V47" s="146" t="s">
         <v>286</v>
@@ -24601,7 +24623,7 @@
     <row r="48" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T48" s="143"/>
       <c r="U48" s="148" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V48" s="146" t="s">
         <v>286</v>
@@ -24618,12 +24640,12 @@
     <row r="49" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T49" s="143"/>
       <c r="U49" s="148" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V49" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="W49" s="146"/>
+        <v>286</v>
+      </c>
+      <c r="W49" s="147"/>
       <c r="X49" s="147"/>
       <c r="Y49" s="146" t="s">
         <v>285</v>
@@ -24634,13 +24656,13 @@
     </row>
     <row r="50" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T50" s="143"/>
-      <c r="U50" s="142" t="s">
-        <v>326</v>
+      <c r="U50" s="148" t="s">
+        <v>324</v>
       </c>
       <c r="V50" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="W50" s="146"/>
+      <c r="W50" s="147"/>
       <c r="X50" s="147"/>
       <c r="Y50" s="146" t="s">
         <v>285</v>
@@ -24650,30 +24672,62 @@
       </c>
     </row>
     <row r="51" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="T51" s="138" t="s">
+      <c r="T51" s="143"/>
+      <c r="U51" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="V51" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="W51" s="146"/>
+      <c r="X51" s="147"/>
+      <c r="Y51" s="146" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z51" s="146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="T52" s="143"/>
+      <c r="U52" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="V52" s="146" t="s">
+        <v>286</v>
+      </c>
+      <c r="W52" s="146"/>
+      <c r="X52" s="147"/>
+      <c r="Y52" s="146" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z52" s="146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="T53" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="U51" s="139" t="s">
+      <c r="U53" s="139" t="s">
         <v>301</v>
       </c>
-      <c r="V51" s="146" t="s">
+      <c r="V53" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="W51" s="146" t="s">
+      <c r="W53" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="X51" s="146" t="s">
+      <c r="X53" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="Y51" s="146" t="s">
+      <c r="Y53" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="Z51" s="146" t="s">
+      <c r="Z53" s="146" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="20:26" ht="18.600000000000001" customHeight="1"/>
-    <row r="53" spans="20:26" ht="18.600000000000001" customHeight="1"/>
     <row r="54" spans="20:26" ht="18.600000000000001" customHeight="1"/>
     <row r="55" spans="20:26" ht="18.600000000000001" customHeight="1"/>
     <row r="56" spans="20:26" ht="18.600000000000001" customHeight="1"/>
@@ -24713,8 +24767,10 @@
     <row r="90" ht="18.600000000000001" customHeight="1"/>
     <row r="91" ht="18.600000000000001" customHeight="1"/>
     <row r="92" ht="18.600000000000001" customHeight="1"/>
+    <row r="93" ht="18.600000000000001" customHeight="1"/>
+    <row r="94" ht="18.600000000000001" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="T2:Z51"/>
+  <autoFilter ref="T2:Z53"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
+++ b/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
@@ -23427,8 +23427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD40" sqref="AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
+++ b/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
@@ -25,9 +25,16 @@
     <sheet name="HMI_1 20ms" sheetId="33" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'APU_111 10ms'!$V$7:$Z$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'APU_112 10ms'!$V$7:$Z$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'BCM_1 50ms'!$U$7:$V$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'EPB_131 10ms'!$V$7:$Z$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'EPS_121 10ms'!$V$7:$Z$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'HMI_1 20ms'!$U$7:$X$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'MCU_141 10ms'!$V$7:$Z$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'MCU_141 20ms'!$V$7:$Z$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'MCU_142 20ms'!$V$7:$Z$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'MCU_241 50ms'!$V$7:$Z$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TxRxMatrix!$T$2:$Z$58</definedName>
     <definedName name="A" localSheetId="6">#REF!</definedName>
     <definedName name="A" localSheetId="7">#REF!</definedName>
@@ -120,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="619">
   <si>
     <t>(In-vehicle Controller Area Network)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4365,10 +4372,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MCU_WorkSts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -4424,6 +4427,666 @@
 0x3: Applied
 0x4: Fault
 0x5~0x7: Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_MCU_Mor_Control_Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU控制MCU电机控制模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、电机控制模式</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、电机工作模式</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、电机目标转速/转速限值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、电机目标转速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转速限值</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、电机目标转矩/转矩限值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、电机目标转矩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转矩限值</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_MCU_Mor_Work_Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_MCU_Mor_Tgt_Spd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机目标转速/转速限值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机目标转矩/转矩限值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3EB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、APU请求控制SBW挡位指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、APU请求控制SBW挡位指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、APU请求控制SBW挡位指令有效性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、APU请求控制SBW挡位指令有效性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_ReqControlSBWValid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_ReqControlSBW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift By Wire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift By Wire Request: Request Active
+APU请求控制SBW请求位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift By Wire Request: Request Active Validity
+APA请求控制SBW消息有效性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical Park Brake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical Park Brake Request: Request Active
+APU请求控制EPB请求位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical Park Brake Request: Request Active Validity
+APA请求控制EPB消息有效性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moter Control Unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moter Control Unit Request: Request Active
+APU请求控制MCU请求位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moter Control Unit Request: Request Active Validity
+APA请求控制MCU消息有效性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SBW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挡位指令</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、控制SBW挡位指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_MCU_Mor_Tgt_Trg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_SBW_Control</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU控制档位信号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、APU请求控制EPB指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驻车指令</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00：转矩控制
+01：转速控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_EPB_Parking_RQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_EPB_Braking_RQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0: Invalid
+0x1: Valid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0: False
+0x1: True</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刹车指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂代行车制动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0: N (Neutral)     空挡
+0x1: D (Drive)       前进挡
+0x2: R (Reverse)     倒车挡
+0x3: P (Park)        驻车挡
+0x4: Fail            不可用
+0x5~0x7: reserved    保留位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU112_RollingCounter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU112_Checksum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU111_EPS_SteeringWheelAngleH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU111_EPS_SteeringWheelAngleL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU控制EPB驻车制动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0 = No request
+0x1 = Release park Baake
+0x2 = Apply park Baake
+0x3 = Not  used</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0 = No request
+0x1 = Release park Baake
+0x2 = Apply park Baake
+0x3 = Not  used</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>APU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刹车制动</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU_WorkSts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: Enabled
+1: Active
+2: Disabled
+3: Failed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驻车指令</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刹车指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂代行车制动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4520,655 +5183,6 @@
       <t>4
 0x5~0x7: Reserved</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_MCU_Mor_Control_Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU控制MCU电机控制模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、电机控制模式</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、电机工作模式</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、电机目标转速/转速限值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、电机目标转速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转速限值</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、电机目标转矩/转矩限值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、电机目标转矩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转矩限值</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_MCU_Mor_Work_Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_MCU_Mor_Tgt_Spd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机目标转速/转速限值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机目标转矩/转矩限值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2710</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3EB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、APU请求控制SBW挡位指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、APU请求控制SBW挡位指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、APU请求控制SBW挡位指令有效性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、APU请求控制SBW挡位指令有效性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_ReqControlSBWValid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_ReqControlSBW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift By Wire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift By Wire Request: Request Active
-APU请求控制SBW请求位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift By Wire Request: Request Active Validity
-APA请求控制SBW消息有效性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electrical Park Brake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electrical Park Brake Request: Request Active
-APU请求控制EPB请求位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electrical Park Brake Request: Request Active Validity
-APA请求控制EPB消息有效性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moter Control Unit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moter Control Unit Request: Request Active
-APU请求控制MCU请求位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moter Control Unit Request: Request Active Validity
-APA请求控制MCU消息有效性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、控制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SBW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挡位指令</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、控制SBW挡位指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_MCU_Mor_Tgt_Trg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_SBW_Control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU控制档位信号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15、APU请求控制EPB指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EPB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驻车指令</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EPB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驻车指令</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00：转矩控制
-01：转速控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_EPB_Parking_RQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_EPB_Braking_RQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0: Invalid
-0x1: Valid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0: False
-0x1: True</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EPB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刹车指令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂代行车制动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EPB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刹车指令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂代行车制动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0: N (Neutral)     空挡
-0x1: D (Drive)       前进挡
-0x2: R (Reverse)     倒车挡
-0x3: P (Park)        驻车挡
-0x4: Fail            不可用
-0x5~0x7: reserved    保留位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU112_RollingCounter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU112_Checksum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU111_EPS_SteeringWheelAngleH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU111_EPS_SteeringWheelAngleL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU控制EPB驻车制动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0 = No request
-0x1 = Release park Baake
-0x2 = Apply park Baake
-0x3 = Not  used</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0 = No request
-0x1 = Release park Baake
-0x2 = Apply park Baake
-0x3 = Not  used</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>APU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EPB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刹车制动</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6614,10 +6628,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6629,25 +6643,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12802,8 +12816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -13465,7 +13479,7 @@
         <v>378</v>
       </c>
       <c r="L16" s="191" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M16" s="195" t="s">
         <v>321</v>
@@ -15711,7 +15725,7 @@
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -16308,16 +16322,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="249" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" s="190" t="s">
+        <v>614</v>
+      </c>
+      <c r="K17" s="191" t="s">
         <v>530</v>
       </c>
-      <c r="J17" s="190" t="s">
-        <v>529</v>
-      </c>
-      <c r="K17" s="191" t="s">
-        <v>531</v>
-      </c>
       <c r="L17" s="191" t="s">
-        <v>473</v>
+        <v>615</v>
       </c>
       <c r="M17" s="194" t="s">
         <v>406</v>
@@ -18243,6 +18257,7 @@
     <row r="75" spans="1:26" ht="24.95" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z10"/>
   <mergeCells count="63">
     <mergeCell ref="N3:N10"/>
     <mergeCell ref="A1:U2"/>
@@ -18322,8 +18337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:P74"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -20878,6 +20893,7 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z10"/>
   <mergeCells count="97">
     <mergeCell ref="K3:K10"/>
     <mergeCell ref="U3:U10"/>
@@ -20991,8 +21007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Z10"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -23537,6 +23553,7 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z10"/>
   <mergeCells count="111">
     <mergeCell ref="V1:Z2"/>
     <mergeCell ref="A1:U2"/>
@@ -23664,8 +23681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51:K66"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -26286,6 +26303,7 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z10"/>
   <mergeCells count="119">
     <mergeCell ref="U11:U66"/>
     <mergeCell ref="S11:S26"/>
@@ -31534,7 +31552,7 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31656,7 +31674,7 @@
         <v>201</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="15"/>
@@ -31678,7 +31696,7 @@
         <v>202</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="15"/>
@@ -32030,7 +32048,7 @@
         <v>521</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D24" s="170" t="s">
         <v>522</v>
@@ -32105,7 +32123,7 @@
   <dimension ref="B1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32364,7 +32382,7 @@
       <c r="R7" s="20"/>
       <c r="T7" s="137"/>
       <c r="U7" s="142" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V7" s="143" t="s">
         <v>241</v>
@@ -32544,7 +32562,7 @@
       <c r="R12" s="20"/>
       <c r="T12" s="137"/>
       <c r="U12" s="142" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="V12" s="143" t="s">
         <v>241</v>
@@ -32580,7 +32598,7 @@
       <c r="R13" s="20"/>
       <c r="T13" s="137"/>
       <c r="U13" s="142" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V13" s="143" t="s">
         <v>241</v>
@@ -32616,7 +32634,7 @@
       <c r="R14" s="20"/>
       <c r="T14" s="137"/>
       <c r="U14" s="142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="V14" s="143" t="s">
         <v>241</v>
@@ -32652,7 +32670,7 @@
       <c r="R15" s="20"/>
       <c r="T15" s="137"/>
       <c r="U15" s="142" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="V15" s="143" t="s">
         <v>241</v>
@@ -32688,7 +32706,7 @@
       <c r="R16" s="20"/>
       <c r="T16" s="137"/>
       <c r="U16" s="142" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="V16" s="143" t="s">
         <v>241</v>
@@ -32724,7 +32742,7 @@
       <c r="R17" s="19"/>
       <c r="T17" s="137"/>
       <c r="U17" s="142" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="V17" s="143" t="s">
         <v>241</v>
@@ -32777,7 +32795,7 @@
     <row r="19" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T19" s="137"/>
       <c r="U19" s="136" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="V19" s="143" t="s">
         <v>241</v>
@@ -32787,7 +32805,7 @@
         <v>242</v>
       </c>
       <c r="Y19" s="159" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z19" s="143" t="s">
         <v>245</v>
@@ -32796,7 +32814,7 @@
     <row r="20" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T20" s="137"/>
       <c r="U20" s="136" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="V20" s="143" t="s">
         <v>241</v>
@@ -33162,7 +33180,7 @@
         <v>242</v>
       </c>
       <c r="W40" s="159" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="X40" s="143" t="s">
         <v>243</v>
@@ -33318,7 +33336,7 @@
         <v>242</v>
       </c>
       <c r="W48" s="159" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X48" s="144" t="s">
         <v>270</v>
@@ -33558,7 +33576,7 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34214,8 +34232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -34615,7 +34633,7 @@
         <v>510</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L11" s="164" t="s">
         <v>402</v>
@@ -34679,7 +34697,7 @@
         <v>509</v>
       </c>
       <c r="K12" s="164" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L12" s="164" t="s">
         <v>480</v>
@@ -35077,7 +35095,7 @@
         <v>519</v>
       </c>
       <c r="K19" s="164" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L19" s="164" t="s">
         <v>402</v>
@@ -35112,7 +35130,7 @@
       </c>
       <c r="W19" s="165"/>
       <c r="X19" s="165" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y19" s="165"/>
       <c r="Z19" s="165" t="s">
@@ -35140,7 +35158,7 @@
         <v>520</v>
       </c>
       <c r="K20" s="164" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L20" s="164" t="s">
         <v>480</v>
@@ -35175,7 +35193,7 @@
       </c>
       <c r="W20" s="165"/>
       <c r="X20" s="165" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Y20" s="165"/>
       <c r="Z20" s="165" t="s">
@@ -35197,13 +35215,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="J21" s="162" t="s">
         <v>561</v>
       </c>
-      <c r="J21" s="162" t="s">
-        <v>563</v>
-      </c>
       <c r="K21" s="164" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L21" s="164" t="s">
         <v>402</v>
@@ -35260,13 +35278,13 @@
         <v>12</v>
       </c>
       <c r="I22" s="164" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J22" s="162" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="164" t="s">
         <v>564</v>
-      </c>
-      <c r="K22" s="164" t="s">
-        <v>566</v>
       </c>
       <c r="L22" s="164" t="s">
         <v>480</v>
@@ -35777,10 +35795,10 @@
         <v>31</v>
       </c>
       <c r="I35" s="191" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J35" s="191" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K35" s="189" t="s">
         <v>493</v>
@@ -36073,7 +36091,7 @@
       </c>
       <c r="I43" s="192"/>
       <c r="J43" s="186" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K43" s="189" t="s">
         <v>494</v>
@@ -36341,7 +36359,7 @@
         <v>47</v>
       </c>
       <c r="I51" s="194" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J51" s="194"/>
       <c r="K51" s="194"/>
@@ -37128,6 +37146,7 @@
       <c r="L78" s="87"/>
     </row>
   </sheetData>
+  <autoFilter ref="V7:Z74"/>
   <mergeCells count="138">
     <mergeCell ref="F67:F74"/>
     <mergeCell ref="U27:U34"/>
@@ -37152,6 +37171,7 @@
     <mergeCell ref="F59:F66"/>
     <mergeCell ref="F43:F50"/>
     <mergeCell ref="F51:F58"/>
+    <mergeCell ref="X35:X50"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
@@ -37248,7 +37268,6 @@
     <mergeCell ref="L27:L34"/>
     <mergeCell ref="M27:M34"/>
     <mergeCell ref="N27:N34"/>
-    <mergeCell ref="X35:X50"/>
     <mergeCell ref="Y35:Y50"/>
     <mergeCell ref="Z35:Z50"/>
     <mergeCell ref="L35:L50"/>
@@ -37282,8 +37301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K34"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -37812,19 +37831,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="175" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J15" s="162" t="s">
+        <v>536</v>
+      </c>
+      <c r="K15" s="162" t="s">
+        <v>537</v>
+      </c>
+      <c r="L15" s="164" t="s">
+        <v>589</v>
+      </c>
+      <c r="M15" s="176" t="s">
         <v>538</v>
-      </c>
-      <c r="K15" s="162" t="s">
-        <v>539</v>
-      </c>
-      <c r="L15" s="164" t="s">
-        <v>592</v>
-      </c>
-      <c r="M15" s="176" t="s">
-        <v>540</v>
       </c>
       <c r="N15" s="176" t="s">
         <v>110</v>
@@ -37854,7 +37873,7 @@
       <c r="W15" s="176"/>
       <c r="X15" s="176"/>
       <c r="Y15" s="176" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Z15" s="176" t="s">
         <v>246</v>
@@ -37876,16 +37895,16 @@
         <v>2</v>
       </c>
       <c r="I16" s="247" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J16" s="247" t="s">
-        <v>547</v>
-      </c>
-      <c r="K16" s="256" t="s">
-        <v>534</v>
+        <v>545</v>
+      </c>
+      <c r="K16" s="254" t="s">
+        <v>533</v>
       </c>
       <c r="L16" s="249" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="M16" s="195" t="s">
         <v>321</v>
@@ -37897,7 +37916,7 @@
         <v>322</v>
       </c>
       <c r="P16" s="195" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q16" s="195" t="s">
         <v>322</v>
@@ -37909,18 +37928,18 @@
         <v>328</v>
       </c>
       <c r="T16" s="195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="U16" s="195"/>
-      <c r="V16" s="245" t="s">
+      <c r="V16" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="245"/>
-      <c r="X16" s="245"/>
-      <c r="Y16" s="245" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z16" s="245" t="s">
+      <c r="W16" s="250"/>
+      <c r="X16" s="250"/>
+      <c r="Y16" s="250" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z16" s="250" t="s">
         <v>246</v>
       </c>
     </row>
@@ -37939,10 +37958,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="255"/>
-      <c r="J17" s="255"/>
-      <c r="K17" s="255"/>
-      <c r="L17" s="255"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
       <c r="M17" s="196"/>
       <c r="N17" s="196"/>
       <c r="O17" s="196"/>
@@ -37952,11 +37971,11 @@
       <c r="S17" s="196"/>
       <c r="T17" s="196"/>
       <c r="U17" s="196"/>
-      <c r="V17" s="254"/>
-      <c r="W17" s="254"/>
-      <c r="X17" s="254"/>
-      <c r="Y17" s="254"/>
-      <c r="Z17" s="254"/>
+      <c r="V17" s="256"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="256"/>
     </row>
     <row r="18" spans="1:26" ht="32.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="49"/>
@@ -37988,11 +38007,11 @@
       <c r="S18" s="197"/>
       <c r="T18" s="197"/>
       <c r="U18" s="197"/>
-      <c r="V18" s="246"/>
-      <c r="W18" s="246"/>
-      <c r="X18" s="246"/>
-      <c r="Y18" s="246"/>
-      <c r="Z18" s="246"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A19" s="49"/>
@@ -38010,13 +38029,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="249" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J19" s="195" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K19" s="186" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L19" s="195" t="s">
         <v>117</v>
@@ -38031,31 +38050,31 @@
         <v>115</v>
       </c>
       <c r="P19" s="195" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q19" s="245">
+        <v>579</v>
+      </c>
+      <c r="Q19" s="250">
         <v>0</v>
       </c>
-      <c r="R19" s="245">
+      <c r="R19" s="250">
         <v>10000</v>
       </c>
-      <c r="S19" s="245" t="s">
-        <v>553</v>
-      </c>
-      <c r="T19" s="245" t="s">
-        <v>552</v>
-      </c>
-      <c r="U19" s="245"/>
-      <c r="V19" s="245" t="s">
-        <v>556</v>
-      </c>
-      <c r="W19" s="245"/>
-      <c r="X19" s="245"/>
-      <c r="Y19" s="245" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z19" s="245" t="s">
-        <v>557</v>
+      <c r="S19" s="250" t="s">
+        <v>551</v>
+      </c>
+      <c r="T19" s="250" t="s">
+        <v>550</v>
+      </c>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250" t="s">
+        <v>554</v>
+      </c>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z19" s="250" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
@@ -38072,7 +38091,7 @@
       <c r="H20" s="76">
         <v>14</v>
       </c>
-      <c r="I20" s="253"/>
+      <c r="I20" s="255"/>
       <c r="J20" s="196"/>
       <c r="K20" s="187"/>
       <c r="L20" s="196"/>
@@ -38080,16 +38099,16 @@
       <c r="N20" s="196"/>
       <c r="O20" s="196"/>
       <c r="P20" s="196"/>
-      <c r="Q20" s="254"/>
-      <c r="R20" s="254"/>
-      <c r="S20" s="254"/>
-      <c r="T20" s="254"/>
-      <c r="U20" s="254"/>
-      <c r="V20" s="254"/>
-      <c r="W20" s="254"/>
-      <c r="X20" s="254"/>
-      <c r="Y20" s="254"/>
-      <c r="Z20" s="254"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="256"/>
+      <c r="S20" s="256"/>
+      <c r="T20" s="256"/>
+      <c r="U20" s="256"/>
+      <c r="V20" s="256"/>
+      <c r="W20" s="256"/>
+      <c r="X20" s="256"/>
+      <c r="Y20" s="256"/>
+      <c r="Z20" s="256"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A21" s="49"/>
@@ -38105,7 +38124,7 @@
       <c r="H21" s="76">
         <v>13</v>
       </c>
-      <c r="I21" s="253"/>
+      <c r="I21" s="255"/>
       <c r="J21" s="196"/>
       <c r="K21" s="187"/>
       <c r="L21" s="196"/>
@@ -38113,16 +38132,16 @@
       <c r="N21" s="196"/>
       <c r="O21" s="196"/>
       <c r="P21" s="196"/>
-      <c r="Q21" s="254"/>
-      <c r="R21" s="254"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="254"/>
-      <c r="W21" s="254"/>
-      <c r="X21" s="254"/>
-      <c r="Y21" s="254"/>
-      <c r="Z21" s="254"/>
+      <c r="Q21" s="256"/>
+      <c r="R21" s="256"/>
+      <c r="S21" s="256"/>
+      <c r="T21" s="256"/>
+      <c r="U21" s="256"/>
+      <c r="V21" s="256"/>
+      <c r="W21" s="256"/>
+      <c r="X21" s="256"/>
+      <c r="Y21" s="256"/>
+      <c r="Z21" s="256"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A22" s="49"/>
@@ -38138,7 +38157,7 @@
       <c r="H22" s="76">
         <v>12</v>
       </c>
-      <c r="I22" s="253"/>
+      <c r="I22" s="255"/>
       <c r="J22" s="196"/>
       <c r="K22" s="187"/>
       <c r="L22" s="196"/>
@@ -38146,16 +38165,16 @@
       <c r="N22" s="196"/>
       <c r="O22" s="196"/>
       <c r="P22" s="196"/>
-      <c r="Q22" s="254"/>
-      <c r="R22" s="254"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="254"/>
-      <c r="W22" s="254"/>
-      <c r="X22" s="254"/>
-      <c r="Y22" s="254"/>
-      <c r="Z22" s="254"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="256"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="256"/>
+      <c r="U22" s="256"/>
+      <c r="V22" s="256"/>
+      <c r="W22" s="256"/>
+      <c r="X22" s="256"/>
+      <c r="Y22" s="256"/>
+      <c r="Z22" s="256"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A23" s="49"/>
@@ -38171,7 +38190,7 @@
       <c r="H23" s="76">
         <v>11</v>
       </c>
-      <c r="I23" s="253"/>
+      <c r="I23" s="255"/>
       <c r="J23" s="196"/>
       <c r="K23" s="187"/>
       <c r="L23" s="196"/>
@@ -38179,16 +38198,16 @@
       <c r="N23" s="196"/>
       <c r="O23" s="196"/>
       <c r="P23" s="196"/>
-      <c r="Q23" s="254"/>
-      <c r="R23" s="254"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="254"/>
-      <c r="W23" s="254"/>
-      <c r="X23" s="254"/>
-      <c r="Y23" s="254"/>
-      <c r="Z23" s="254"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="256"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="256"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="256"/>
+      <c r="W23" s="256"/>
+      <c r="X23" s="256"/>
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="256"/>
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="49"/>
@@ -38204,7 +38223,7 @@
       <c r="H24" s="76">
         <v>10</v>
       </c>
-      <c r="I24" s="253"/>
+      <c r="I24" s="255"/>
       <c r="J24" s="196"/>
       <c r="K24" s="187"/>
       <c r="L24" s="196"/>
@@ -38212,16 +38231,16 @@
       <c r="N24" s="196"/>
       <c r="O24" s="196"/>
       <c r="P24" s="196"/>
-      <c r="Q24" s="254"/>
-      <c r="R24" s="254"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="254"/>
-      <c r="W24" s="254"/>
-      <c r="X24" s="254"/>
-      <c r="Y24" s="254"/>
-      <c r="Z24" s="254"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="256"/>
+      <c r="S24" s="256"/>
+      <c r="T24" s="256"/>
+      <c r="U24" s="256"/>
+      <c r="V24" s="256"/>
+      <c r="W24" s="256"/>
+      <c r="X24" s="256"/>
+      <c r="Y24" s="256"/>
+      <c r="Z24" s="256"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="49"/>
@@ -38237,7 +38256,7 @@
       <c r="H25" s="76">
         <v>9</v>
       </c>
-      <c r="I25" s="253"/>
+      <c r="I25" s="255"/>
       <c r="J25" s="196"/>
       <c r="K25" s="187"/>
       <c r="L25" s="196"/>
@@ -38245,16 +38264,16 @@
       <c r="N25" s="196"/>
       <c r="O25" s="196"/>
       <c r="P25" s="196"/>
-      <c r="Q25" s="254"/>
-      <c r="R25" s="254"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="254"/>
-      <c r="W25" s="254"/>
-      <c r="X25" s="254"/>
-      <c r="Y25" s="254"/>
-      <c r="Z25" s="254"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="256"/>
+      <c r="S25" s="256"/>
+      <c r="T25" s="256"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="256"/>
+      <c r="W25" s="256"/>
+      <c r="X25" s="256"/>
+      <c r="Y25" s="256"/>
+      <c r="Z25" s="256"/>
     </row>
     <row r="26" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="49"/>
@@ -38270,7 +38289,7 @@
       <c r="H26" s="76">
         <v>8</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="255"/>
       <c r="J26" s="196"/>
       <c r="K26" s="187"/>
       <c r="L26" s="196"/>
@@ -38278,16 +38297,16 @@
       <c r="N26" s="196"/>
       <c r="O26" s="196"/>
       <c r="P26" s="196"/>
-      <c r="Q26" s="254"/>
-      <c r="R26" s="254"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="254"/>
-      <c r="W26" s="254"/>
-      <c r="X26" s="254"/>
-      <c r="Y26" s="254"/>
-      <c r="Z26" s="254"/>
+      <c r="Q26" s="256"/>
+      <c r="R26" s="256"/>
+      <c r="S26" s="256"/>
+      <c r="T26" s="256"/>
+      <c r="U26" s="256"/>
+      <c r="V26" s="256"/>
+      <c r="W26" s="256"/>
+      <c r="X26" s="256"/>
+      <c r="Y26" s="256"/>
+      <c r="Z26" s="256"/>
     </row>
     <row r="27" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A27" s="49"/>
@@ -38304,7 +38323,7 @@
       <c r="H27" s="76">
         <v>23</v>
       </c>
-      <c r="I27" s="253"/>
+      <c r="I27" s="255"/>
       <c r="J27" s="196"/>
       <c r="K27" s="187"/>
       <c r="L27" s="196"/>
@@ -38312,16 +38331,16 @@
       <c r="N27" s="196"/>
       <c r="O27" s="196"/>
       <c r="P27" s="196"/>
-      <c r="Q27" s="254"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="254"/>
-      <c r="W27" s="254"/>
-      <c r="X27" s="254"/>
-      <c r="Y27" s="254"/>
-      <c r="Z27" s="254"/>
+      <c r="Q27" s="256"/>
+      <c r="R27" s="256"/>
+      <c r="S27" s="256"/>
+      <c r="T27" s="256"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="256"/>
+      <c r="W27" s="256"/>
+      <c r="X27" s="256"/>
+      <c r="Y27" s="256"/>
+      <c r="Z27" s="256"/>
     </row>
     <row r="28" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="49"/>
@@ -38337,7 +38356,7 @@
       <c r="H28" s="76">
         <v>22</v>
       </c>
-      <c r="I28" s="253"/>
+      <c r="I28" s="255"/>
       <c r="J28" s="196"/>
       <c r="K28" s="187"/>
       <c r="L28" s="196"/>
@@ -38345,16 +38364,16 @@
       <c r="N28" s="196"/>
       <c r="O28" s="196"/>
       <c r="P28" s="196"/>
-      <c r="Q28" s="254"/>
-      <c r="R28" s="254"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="254"/>
-      <c r="W28" s="254"/>
-      <c r="X28" s="254"/>
-      <c r="Y28" s="254"/>
-      <c r="Z28" s="254"/>
+      <c r="Q28" s="256"/>
+      <c r="R28" s="256"/>
+      <c r="S28" s="256"/>
+      <c r="T28" s="256"/>
+      <c r="U28" s="256"/>
+      <c r="V28" s="256"/>
+      <c r="W28" s="256"/>
+      <c r="X28" s="256"/>
+      <c r="Y28" s="256"/>
+      <c r="Z28" s="256"/>
     </row>
     <row r="29" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="49"/>
@@ -38370,7 +38389,7 @@
       <c r="H29" s="76">
         <v>21</v>
       </c>
-      <c r="I29" s="253"/>
+      <c r="I29" s="255"/>
       <c r="J29" s="196"/>
       <c r="K29" s="187"/>
       <c r="L29" s="196"/>
@@ -38378,16 +38397,16 @@
       <c r="N29" s="196"/>
       <c r="O29" s="196"/>
       <c r="P29" s="196"/>
-      <c r="Q29" s="254"/>
-      <c r="R29" s="254"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="254"/>
-      <c r="W29" s="254"/>
-      <c r="X29" s="254"/>
-      <c r="Y29" s="254"/>
-      <c r="Z29" s="254"/>
+      <c r="Q29" s="256"/>
+      <c r="R29" s="256"/>
+      <c r="S29" s="256"/>
+      <c r="T29" s="256"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="256"/>
+      <c r="W29" s="256"/>
+      <c r="X29" s="256"/>
+      <c r="Y29" s="256"/>
+      <c r="Z29" s="256"/>
     </row>
     <row r="30" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A30" s="49"/>
@@ -38403,7 +38422,7 @@
       <c r="H30" s="76">
         <v>20</v>
       </c>
-      <c r="I30" s="253"/>
+      <c r="I30" s="255"/>
       <c r="J30" s="196"/>
       <c r="K30" s="187"/>
       <c r="L30" s="196"/>
@@ -38411,16 +38430,16 @@
       <c r="N30" s="196"/>
       <c r="O30" s="196"/>
       <c r="P30" s="196"/>
-      <c r="Q30" s="254"/>
-      <c r="R30" s="254"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="254"/>
-      <c r="W30" s="254"/>
-      <c r="X30" s="254"/>
-      <c r="Y30" s="254"/>
-      <c r="Z30" s="254"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="256"/>
+      <c r="S30" s="256"/>
+      <c r="T30" s="256"/>
+      <c r="U30" s="256"/>
+      <c r="V30" s="256"/>
+      <c r="W30" s="256"/>
+      <c r="X30" s="256"/>
+      <c r="Y30" s="256"/>
+      <c r="Z30" s="256"/>
     </row>
     <row r="31" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A31" s="49"/>
@@ -38436,7 +38455,7 @@
       <c r="H31" s="76">
         <v>19</v>
       </c>
-      <c r="I31" s="253"/>
+      <c r="I31" s="255"/>
       <c r="J31" s="196"/>
       <c r="K31" s="187"/>
       <c r="L31" s="196"/>
@@ -38444,16 +38463,16 @@
       <c r="N31" s="196"/>
       <c r="O31" s="196"/>
       <c r="P31" s="196"/>
-      <c r="Q31" s="254"/>
-      <c r="R31" s="254"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="254"/>
-      <c r="W31" s="254"/>
-      <c r="X31" s="254"/>
-      <c r="Y31" s="254"/>
-      <c r="Z31" s="254"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="256"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="256"/>
+      <c r="W31" s="256"/>
+      <c r="X31" s="256"/>
+      <c r="Y31" s="256"/>
+      <c r="Z31" s="256"/>
     </row>
     <row r="32" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="49"/>
@@ -38469,7 +38488,7 @@
       <c r="H32" s="76">
         <v>18</v>
       </c>
-      <c r="I32" s="253"/>
+      <c r="I32" s="255"/>
       <c r="J32" s="196"/>
       <c r="K32" s="187"/>
       <c r="L32" s="196"/>
@@ -38477,16 +38496,16 @@
       <c r="N32" s="196"/>
       <c r="O32" s="196"/>
       <c r="P32" s="196"/>
-      <c r="Q32" s="254"/>
-      <c r="R32" s="254"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="254"/>
-      <c r="W32" s="254"/>
-      <c r="X32" s="254"/>
-      <c r="Y32" s="254"/>
-      <c r="Z32" s="254"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="256"/>
+      <c r="S32" s="256"/>
+      <c r="T32" s="256"/>
+      <c r="U32" s="256"/>
+      <c r="V32" s="256"/>
+      <c r="W32" s="256"/>
+      <c r="X32" s="256"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="256"/>
     </row>
     <row r="33" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="49"/>
@@ -38502,7 +38521,7 @@
       <c r="H33" s="76">
         <v>17</v>
       </c>
-      <c r="I33" s="253"/>
+      <c r="I33" s="255"/>
       <c r="J33" s="196"/>
       <c r="K33" s="187"/>
       <c r="L33" s="196"/>
@@ -38510,16 +38529,16 @@
       <c r="N33" s="196"/>
       <c r="O33" s="196"/>
       <c r="P33" s="196"/>
-      <c r="Q33" s="254"/>
-      <c r="R33" s="254"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="254"/>
-      <c r="W33" s="254"/>
-      <c r="X33" s="254"/>
-      <c r="Y33" s="254"/>
-      <c r="Z33" s="254"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="256"/>
+      <c r="S33" s="256"/>
+      <c r="T33" s="256"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="256"/>
+      <c r="W33" s="256"/>
+      <c r="X33" s="256"/>
+      <c r="Y33" s="256"/>
+      <c r="Z33" s="256"/>
     </row>
     <row r="34" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A34" s="49"/>
@@ -38543,16 +38562,16 @@
       <c r="N34" s="197"/>
       <c r="O34" s="197"/>
       <c r="P34" s="197"/>
-      <c r="Q34" s="246"/>
-      <c r="R34" s="246"/>
-      <c r="S34" s="246"/>
-      <c r="T34" s="246"/>
-      <c r="U34" s="246"/>
-      <c r="V34" s="246"/>
-      <c r="W34" s="246"/>
-      <c r="X34" s="246"/>
-      <c r="Y34" s="246"/>
-      <c r="Z34" s="246"/>
+      <c r="Q34" s="251"/>
+      <c r="R34" s="251"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="251"/>
+      <c r="W34" s="251"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
     </row>
     <row r="35" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A35" s="49"/>
@@ -38570,13 +38589,13 @@
         <v>31</v>
       </c>
       <c r="I35" s="249" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J35" s="195" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K35" s="186" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L35" s="195" t="s">
         <v>136</v>
@@ -38593,29 +38612,29 @@
       <c r="P35" s="195" t="s">
         <v>328</v>
       </c>
-      <c r="Q35" s="245">
+      <c r="Q35" s="250">
         <v>0</v>
       </c>
-      <c r="R35" s="245">
+      <c r="R35" s="250">
         <v>1000</v>
       </c>
-      <c r="S35" s="245" t="s">
+      <c r="S35" s="250" t="s">
+        <v>552</v>
+      </c>
+      <c r="T35" s="250" t="s">
+        <v>553</v>
+      </c>
+      <c r="U35" s="250"/>
+      <c r="V35" s="250" t="s">
         <v>554</v>
       </c>
-      <c r="T35" s="245" t="s">
+      <c r="W35" s="250"/>
+      <c r="X35" s="250"/>
+      <c r="Y35" s="250" t="s">
         <v>555</v>
       </c>
-      <c r="U35" s="245"/>
-      <c r="V35" s="245" t="s">
-        <v>556</v>
-      </c>
-      <c r="W35" s="245"/>
-      <c r="X35" s="245"/>
-      <c r="Y35" s="245" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z35" s="245" t="s">
-        <v>557</v>
+      <c r="Z35" s="250" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
@@ -38632,7 +38651,7 @@
       <c r="H36" s="76">
         <v>30</v>
       </c>
-      <c r="I36" s="253"/>
+      <c r="I36" s="255"/>
       <c r="J36" s="196"/>
       <c r="K36" s="187"/>
       <c r="L36" s="196"/>
@@ -38640,16 +38659,16 @@
       <c r="N36" s="196"/>
       <c r="O36" s="196"/>
       <c r="P36" s="196"/>
-      <c r="Q36" s="254"/>
-      <c r="R36" s="254"/>
-      <c r="S36" s="254"/>
-      <c r="T36" s="254"/>
-      <c r="U36" s="254"/>
-      <c r="V36" s="254"/>
-      <c r="W36" s="254"/>
-      <c r="X36" s="254"/>
-      <c r="Y36" s="254"/>
-      <c r="Z36" s="254"/>
+      <c r="Q36" s="256"/>
+      <c r="R36" s="256"/>
+      <c r="S36" s="256"/>
+      <c r="T36" s="256"/>
+      <c r="U36" s="256"/>
+      <c r="V36" s="256"/>
+      <c r="W36" s="256"/>
+      <c r="X36" s="256"/>
+      <c r="Y36" s="256"/>
+      <c r="Z36" s="256"/>
     </row>
     <row r="37" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A37" s="49"/>
@@ -38665,7 +38684,7 @@
       <c r="H37" s="76">
         <v>29</v>
       </c>
-      <c r="I37" s="253"/>
+      <c r="I37" s="255"/>
       <c r="J37" s="196"/>
       <c r="K37" s="187"/>
       <c r="L37" s="196"/>
@@ -38673,16 +38692,16 @@
       <c r="N37" s="196"/>
       <c r="O37" s="196"/>
       <c r="P37" s="196"/>
-      <c r="Q37" s="254"/>
-      <c r="R37" s="254"/>
-      <c r="S37" s="254"/>
-      <c r="T37" s="254"/>
-      <c r="U37" s="254"/>
-      <c r="V37" s="254"/>
-      <c r="W37" s="254"/>
-      <c r="X37" s="254"/>
-      <c r="Y37" s="254"/>
-      <c r="Z37" s="254"/>
+      <c r="Q37" s="256"/>
+      <c r="R37" s="256"/>
+      <c r="S37" s="256"/>
+      <c r="T37" s="256"/>
+      <c r="U37" s="256"/>
+      <c r="V37" s="256"/>
+      <c r="W37" s="256"/>
+      <c r="X37" s="256"/>
+      <c r="Y37" s="256"/>
+      <c r="Z37" s="256"/>
     </row>
     <row r="38" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="49"/>
@@ -38698,7 +38717,7 @@
       <c r="H38" s="76">
         <v>28</v>
       </c>
-      <c r="I38" s="253"/>
+      <c r="I38" s="255"/>
       <c r="J38" s="196"/>
       <c r="K38" s="187"/>
       <c r="L38" s="196"/>
@@ -38706,16 +38725,16 @@
       <c r="N38" s="196"/>
       <c r="O38" s="196"/>
       <c r="P38" s="196"/>
-      <c r="Q38" s="254"/>
-      <c r="R38" s="254"/>
-      <c r="S38" s="254"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="254"/>
-      <c r="V38" s="254"/>
-      <c r="W38" s="254"/>
-      <c r="X38" s="254"/>
-      <c r="Y38" s="254"/>
-      <c r="Z38" s="254"/>
+      <c r="Q38" s="256"/>
+      <c r="R38" s="256"/>
+      <c r="S38" s="256"/>
+      <c r="T38" s="256"/>
+      <c r="U38" s="256"/>
+      <c r="V38" s="256"/>
+      <c r="W38" s="256"/>
+      <c r="X38" s="256"/>
+      <c r="Y38" s="256"/>
+      <c r="Z38" s="256"/>
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A39" s="49"/>
@@ -38731,7 +38750,7 @@
       <c r="H39" s="76">
         <v>27</v>
       </c>
-      <c r="I39" s="253"/>
+      <c r="I39" s="255"/>
       <c r="J39" s="196"/>
       <c r="K39" s="187"/>
       <c r="L39" s="196"/>
@@ -38739,16 +38758,16 @@
       <c r="N39" s="196"/>
       <c r="O39" s="196"/>
       <c r="P39" s="196"/>
-      <c r="Q39" s="254"/>
-      <c r="R39" s="254"/>
-      <c r="S39" s="254"/>
-      <c r="T39" s="254"/>
-      <c r="U39" s="254"/>
-      <c r="V39" s="254"/>
-      <c r="W39" s="254"/>
-      <c r="X39" s="254"/>
-      <c r="Y39" s="254"/>
-      <c r="Z39" s="254"/>
+      <c r="Q39" s="256"/>
+      <c r="R39" s="256"/>
+      <c r="S39" s="256"/>
+      <c r="T39" s="256"/>
+      <c r="U39" s="256"/>
+      <c r="V39" s="256"/>
+      <c r="W39" s="256"/>
+      <c r="X39" s="256"/>
+      <c r="Y39" s="256"/>
+      <c r="Z39" s="256"/>
     </row>
     <row r="40" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="49"/>
@@ -38764,7 +38783,7 @@
       <c r="H40" s="76">
         <v>26</v>
       </c>
-      <c r="I40" s="253"/>
+      <c r="I40" s="255"/>
       <c r="J40" s="196"/>
       <c r="K40" s="187"/>
       <c r="L40" s="196"/>
@@ -38772,16 +38791,16 @@
       <c r="N40" s="196"/>
       <c r="O40" s="196"/>
       <c r="P40" s="196"/>
-      <c r="Q40" s="254"/>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="254"/>
-      <c r="U40" s="254"/>
-      <c r="V40" s="254"/>
-      <c r="W40" s="254"/>
-      <c r="X40" s="254"/>
-      <c r="Y40" s="254"/>
-      <c r="Z40" s="254"/>
+      <c r="Q40" s="256"/>
+      <c r="R40" s="256"/>
+      <c r="S40" s="256"/>
+      <c r="T40" s="256"/>
+      <c r="U40" s="256"/>
+      <c r="V40" s="256"/>
+      <c r="W40" s="256"/>
+      <c r="X40" s="256"/>
+      <c r="Y40" s="256"/>
+      <c r="Z40" s="256"/>
     </row>
     <row r="41" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="49"/>
@@ -38797,7 +38816,7 @@
       <c r="H41" s="76">
         <v>25</v>
       </c>
-      <c r="I41" s="253"/>
+      <c r="I41" s="255"/>
       <c r="J41" s="196"/>
       <c r="K41" s="187"/>
       <c r="L41" s="196"/>
@@ -38805,16 +38824,16 @@
       <c r="N41" s="196"/>
       <c r="O41" s="196"/>
       <c r="P41" s="196"/>
-      <c r="Q41" s="254"/>
-      <c r="R41" s="254"/>
-      <c r="S41" s="254"/>
-      <c r="T41" s="254"/>
-      <c r="U41" s="254"/>
-      <c r="V41" s="254"/>
-      <c r="W41" s="254"/>
-      <c r="X41" s="254"/>
-      <c r="Y41" s="254"/>
-      <c r="Z41" s="254"/>
+      <c r="Q41" s="256"/>
+      <c r="R41" s="256"/>
+      <c r="S41" s="256"/>
+      <c r="T41" s="256"/>
+      <c r="U41" s="256"/>
+      <c r="V41" s="256"/>
+      <c r="W41" s="256"/>
+      <c r="X41" s="256"/>
+      <c r="Y41" s="256"/>
+      <c r="Z41" s="256"/>
     </row>
     <row r="42" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="49"/>
@@ -38830,7 +38849,7 @@
       <c r="H42" s="76">
         <v>24</v>
       </c>
-      <c r="I42" s="253"/>
+      <c r="I42" s="255"/>
       <c r="J42" s="196"/>
       <c r="K42" s="187"/>
       <c r="L42" s="196"/>
@@ -38838,16 +38857,16 @@
       <c r="N42" s="196"/>
       <c r="O42" s="196"/>
       <c r="P42" s="196"/>
-      <c r="Q42" s="254"/>
-      <c r="R42" s="254"/>
-      <c r="S42" s="254"/>
-      <c r="T42" s="254"/>
-      <c r="U42" s="254"/>
-      <c r="V42" s="254"/>
-      <c r="W42" s="254"/>
-      <c r="X42" s="254"/>
-      <c r="Y42" s="254"/>
-      <c r="Z42" s="254"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="256"/>
+      <c r="W42" s="256"/>
+      <c r="X42" s="256"/>
+      <c r="Y42" s="256"/>
+      <c r="Z42" s="256"/>
     </row>
     <row r="43" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="49"/>
@@ -38864,7 +38883,7 @@
       <c r="H43" s="76">
         <v>39</v>
       </c>
-      <c r="I43" s="253"/>
+      <c r="I43" s="255"/>
       <c r="J43" s="196"/>
       <c r="K43" s="187"/>
       <c r="L43" s="196"/>
@@ -38872,16 +38891,16 @@
       <c r="N43" s="196"/>
       <c r="O43" s="196"/>
       <c r="P43" s="196"/>
-      <c r="Q43" s="254"/>
-      <c r="R43" s="254"/>
-      <c r="S43" s="254"/>
-      <c r="T43" s="254"/>
-      <c r="U43" s="254"/>
-      <c r="V43" s="254"/>
-      <c r="W43" s="254"/>
-      <c r="X43" s="254"/>
-      <c r="Y43" s="254"/>
-      <c r="Z43" s="254"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="256"/>
+      <c r="S43" s="256"/>
+      <c r="T43" s="256"/>
+      <c r="U43" s="256"/>
+      <c r="V43" s="256"/>
+      <c r="W43" s="256"/>
+      <c r="X43" s="256"/>
+      <c r="Y43" s="256"/>
+      <c r="Z43" s="256"/>
     </row>
     <row r="44" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A44" s="49"/>
@@ -38897,7 +38916,7 @@
       <c r="H44" s="76">
         <v>38</v>
       </c>
-      <c r="I44" s="253"/>
+      <c r="I44" s="255"/>
       <c r="J44" s="196"/>
       <c r="K44" s="187"/>
       <c r="L44" s="196"/>
@@ -38905,16 +38924,16 @@
       <c r="N44" s="196"/>
       <c r="O44" s="196"/>
       <c r="P44" s="196"/>
-      <c r="Q44" s="254"/>
-      <c r="R44" s="254"/>
-      <c r="S44" s="254"/>
-      <c r="T44" s="254"/>
-      <c r="U44" s="254"/>
-      <c r="V44" s="254"/>
-      <c r="W44" s="254"/>
-      <c r="X44" s="254"/>
-      <c r="Y44" s="254"/>
-      <c r="Z44" s="254"/>
+      <c r="Q44" s="256"/>
+      <c r="R44" s="256"/>
+      <c r="S44" s="256"/>
+      <c r="T44" s="256"/>
+      <c r="U44" s="256"/>
+      <c r="V44" s="256"/>
+      <c r="W44" s="256"/>
+      <c r="X44" s="256"/>
+      <c r="Y44" s="256"/>
+      <c r="Z44" s="256"/>
     </row>
     <row r="45" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="49"/>
@@ -38930,7 +38949,7 @@
       <c r="H45" s="166">
         <v>37</v>
       </c>
-      <c r="I45" s="253"/>
+      <c r="I45" s="255"/>
       <c r="J45" s="196"/>
       <c r="K45" s="187"/>
       <c r="L45" s="196"/>
@@ -38938,16 +38957,16 @@
       <c r="N45" s="196"/>
       <c r="O45" s="196"/>
       <c r="P45" s="196"/>
-      <c r="Q45" s="254"/>
-      <c r="R45" s="254"/>
-      <c r="S45" s="254"/>
-      <c r="T45" s="254"/>
-      <c r="U45" s="254"/>
-      <c r="V45" s="254"/>
-      <c r="W45" s="254"/>
-      <c r="X45" s="254"/>
-      <c r="Y45" s="254"/>
-      <c r="Z45" s="254"/>
+      <c r="Q45" s="256"/>
+      <c r="R45" s="256"/>
+      <c r="S45" s="256"/>
+      <c r="T45" s="256"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
+      <c r="X45" s="256"/>
+      <c r="Y45" s="256"/>
+      <c r="Z45" s="256"/>
     </row>
     <row r="46" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A46" s="49"/>
@@ -38963,7 +38982,7 @@
       <c r="H46" s="76">
         <v>36</v>
       </c>
-      <c r="I46" s="253"/>
+      <c r="I46" s="255"/>
       <c r="J46" s="196"/>
       <c r="K46" s="187"/>
       <c r="L46" s="196"/>
@@ -38971,16 +38990,16 @@
       <c r="N46" s="196"/>
       <c r="O46" s="196"/>
       <c r="P46" s="196"/>
-      <c r="Q46" s="254"/>
-      <c r="R46" s="254"/>
-      <c r="S46" s="254"/>
-      <c r="T46" s="254"/>
-      <c r="U46" s="254"/>
-      <c r="V46" s="254"/>
-      <c r="W46" s="254"/>
-      <c r="X46" s="254"/>
-      <c r="Y46" s="254"/>
-      <c r="Z46" s="254"/>
+      <c r="Q46" s="256"/>
+      <c r="R46" s="256"/>
+      <c r="S46" s="256"/>
+      <c r="T46" s="256"/>
+      <c r="U46" s="256"/>
+      <c r="V46" s="256"/>
+      <c r="W46" s="256"/>
+      <c r="X46" s="256"/>
+      <c r="Y46" s="256"/>
+      <c r="Z46" s="256"/>
     </row>
     <row r="47" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="49"/>
@@ -38996,7 +39015,7 @@
       <c r="H47" s="85">
         <v>35</v>
       </c>
-      <c r="I47" s="253"/>
+      <c r="I47" s="255"/>
       <c r="J47" s="196"/>
       <c r="K47" s="187"/>
       <c r="L47" s="196"/>
@@ -39004,16 +39023,16 @@
       <c r="N47" s="196"/>
       <c r="O47" s="196"/>
       <c r="P47" s="196"/>
-      <c r="Q47" s="254"/>
-      <c r="R47" s="254"/>
-      <c r="S47" s="254"/>
-      <c r="T47" s="254"/>
-      <c r="U47" s="254"/>
-      <c r="V47" s="254"/>
-      <c r="W47" s="254"/>
-      <c r="X47" s="254"/>
-      <c r="Y47" s="254"/>
-      <c r="Z47" s="254"/>
+      <c r="Q47" s="256"/>
+      <c r="R47" s="256"/>
+      <c r="S47" s="256"/>
+      <c r="T47" s="256"/>
+      <c r="U47" s="256"/>
+      <c r="V47" s="256"/>
+      <c r="W47" s="256"/>
+      <c r="X47" s="256"/>
+      <c r="Y47" s="256"/>
+      <c r="Z47" s="256"/>
     </row>
     <row r="48" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="49"/>
@@ -39029,7 +39048,7 @@
       <c r="H48" s="85">
         <v>34</v>
       </c>
-      <c r="I48" s="253"/>
+      <c r="I48" s="255"/>
       <c r="J48" s="196"/>
       <c r="K48" s="187"/>
       <c r="L48" s="196"/>
@@ -39037,16 +39056,16 @@
       <c r="N48" s="196"/>
       <c r="O48" s="196"/>
       <c r="P48" s="196"/>
-      <c r="Q48" s="254"/>
-      <c r="R48" s="254"/>
-      <c r="S48" s="254"/>
-      <c r="T48" s="254"/>
-      <c r="U48" s="254"/>
-      <c r="V48" s="254"/>
-      <c r="W48" s="254"/>
-      <c r="X48" s="254"/>
-      <c r="Y48" s="254"/>
-      <c r="Z48" s="254"/>
+      <c r="Q48" s="256"/>
+      <c r="R48" s="256"/>
+      <c r="S48" s="256"/>
+      <c r="T48" s="256"/>
+      <c r="U48" s="256"/>
+      <c r="V48" s="256"/>
+      <c r="W48" s="256"/>
+      <c r="X48" s="256"/>
+      <c r="Y48" s="256"/>
+      <c r="Z48" s="256"/>
     </row>
     <row r="49" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A49" s="49"/>
@@ -39062,7 +39081,7 @@
       <c r="H49" s="85">
         <v>33</v>
       </c>
-      <c r="I49" s="253"/>
+      <c r="I49" s="255"/>
       <c r="J49" s="196"/>
       <c r="K49" s="187"/>
       <c r="L49" s="196"/>
@@ -39070,16 +39089,16 @@
       <c r="N49" s="196"/>
       <c r="O49" s="196"/>
       <c r="P49" s="196"/>
-      <c r="Q49" s="254"/>
-      <c r="R49" s="254"/>
-      <c r="S49" s="254"/>
-      <c r="T49" s="254"/>
-      <c r="U49" s="254"/>
-      <c r="V49" s="254"/>
-      <c r="W49" s="254"/>
-      <c r="X49" s="254"/>
-      <c r="Y49" s="254"/>
-      <c r="Z49" s="254"/>
+      <c r="Q49" s="256"/>
+      <c r="R49" s="256"/>
+      <c r="S49" s="256"/>
+      <c r="T49" s="256"/>
+      <c r="U49" s="256"/>
+      <c r="V49" s="256"/>
+      <c r="W49" s="256"/>
+      <c r="X49" s="256"/>
+      <c r="Y49" s="256"/>
+      <c r="Z49" s="256"/>
     </row>
     <row r="50" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A50" s="49"/>
@@ -39103,16 +39122,16 @@
       <c r="N50" s="197"/>
       <c r="O50" s="197"/>
       <c r="P50" s="197"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="246"/>
-      <c r="S50" s="246"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="246"/>
-      <c r="V50" s="246"/>
-      <c r="W50" s="246"/>
-      <c r="X50" s="246"/>
-      <c r="Y50" s="246"/>
-      <c r="Z50" s="246"/>
+      <c r="Q50" s="251"/>
+      <c r="R50" s="251"/>
+      <c r="S50" s="251"/>
+      <c r="T50" s="251"/>
+      <c r="U50" s="251"/>
+      <c r="V50" s="251"/>
+      <c r="W50" s="251"/>
+      <c r="X50" s="251"/>
+      <c r="Y50" s="251"/>
+      <c r="Z50" s="251"/>
     </row>
     <row r="51" spans="1:26" ht="29.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="49"/>
@@ -39130,52 +39149,52 @@
         <v>47</v>
       </c>
       <c r="I51" s="249" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J51" s="195" t="s">
+        <v>575</v>
+      </c>
+      <c r="K51" s="186" t="s">
+        <v>576</v>
+      </c>
+      <c r="L51" s="191" t="s">
+        <v>596</v>
+      </c>
+      <c r="M51" s="195" t="s">
         <v>577</v>
       </c>
-      <c r="K51" s="186" t="s">
+      <c r="N51" s="195" t="s">
+        <v>581</v>
+      </c>
+      <c r="O51" s="195" t="s">
         <v>578</v>
       </c>
-      <c r="L51" s="191" t="s">
-        <v>600</v>
-      </c>
-      <c r="M51" s="195" t="s">
-        <v>579</v>
-      </c>
-      <c r="N51" s="195" t="s">
+      <c r="P51" s="195" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q51" s="195" t="s">
+        <v>578</v>
+      </c>
+      <c r="R51" s="195" t="s">
         <v>583</v>
       </c>
-      <c r="O51" s="195" t="s">
+      <c r="S51" s="195" t="s">
         <v>580</v>
       </c>
-      <c r="P51" s="195" t="s">
+      <c r="T51" s="195" t="s">
         <v>584</v>
-      </c>
-      <c r="Q51" s="195" t="s">
-        <v>580</v>
-      </c>
-      <c r="R51" s="195" t="s">
-        <v>585</v>
-      </c>
-      <c r="S51" s="195" t="s">
-        <v>582</v>
-      </c>
-      <c r="T51" s="195" t="s">
-        <v>586</v>
       </c>
       <c r="U51" s="195"/>
       <c r="V51" s="195" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="W51" s="195"/>
       <c r="X51" s="195"/>
       <c r="Y51" s="195" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z51" s="195" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="29.25" customHeight="1" outlineLevel="1">
@@ -39192,7 +39211,7 @@
       <c r="H52" s="85">
         <v>46</v>
       </c>
-      <c r="I52" s="253"/>
+      <c r="I52" s="255"/>
       <c r="J52" s="196"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
@@ -39259,54 +39278,54 @@
         <v>44</v>
       </c>
       <c r="I54" s="247" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J54" s="247" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K54" s="247" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L54" s="249" t="s">
-        <v>613</v>
-      </c>
-      <c r="M54" s="245" t="s">
+        <v>609</v>
+      </c>
+      <c r="M54" s="250" t="s">
+        <v>601</v>
+      </c>
+      <c r="N54" s="250" t="s">
+        <v>602</v>
+      </c>
+      <c r="O54" s="250" t="s">
+        <v>603</v>
+      </c>
+      <c r="P54" s="250" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q54" s="250" t="s">
+        <v>603</v>
+      </c>
+      <c r="R54" s="250">
+        <v>3</v>
+      </c>
+      <c r="S54" s="250" t="s">
+        <v>604</v>
+      </c>
+      <c r="T54" s="250" t="s">
+        <v>606</v>
+      </c>
+      <c r="U54" s="250"/>
+      <c r="V54" s="250" t="s">
+        <v>602</v>
+      </c>
+      <c r="W54" s="250"/>
+      <c r="X54" s="250" t="s">
         <v>605</v>
       </c>
-      <c r="N54" s="245" t="s">
-        <v>606</v>
-      </c>
-      <c r="O54" s="245" t="s">
-        <v>607</v>
-      </c>
-      <c r="P54" s="245" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q54" s="245" t="s">
-        <v>607</v>
-      </c>
-      <c r="R54" s="245">
-        <v>3</v>
-      </c>
-      <c r="S54" s="245" t="s">
-        <v>608</v>
-      </c>
-      <c r="T54" s="245" t="s">
-        <v>610</v>
-      </c>
-      <c r="U54" s="245"/>
-      <c r="V54" s="245" t="s">
-        <v>606</v>
-      </c>
-      <c r="W54" s="245"/>
-      <c r="X54" s="245" t="s">
-        <v>609</v>
-      </c>
-      <c r="Y54" s="245" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z54" s="245" t="s">
-        <v>609</v>
+      <c r="Y54" s="250" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z54" s="250" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="33" customHeight="1" outlineLevel="1">
@@ -39327,20 +39346,20 @@
       <c r="J55" s="248"/>
       <c r="K55" s="248"/>
       <c r="L55" s="248"/>
-      <c r="M55" s="246"/>
-      <c r="N55" s="246"/>
-      <c r="O55" s="246"/>
-      <c r="P55" s="246"/>
-      <c r="Q55" s="246"/>
-      <c r="R55" s="246"/>
-      <c r="S55" s="246"/>
-      <c r="T55" s="246"/>
-      <c r="U55" s="246"/>
-      <c r="V55" s="246"/>
-      <c r="W55" s="246"/>
-      <c r="X55" s="246"/>
-      <c r="Y55" s="246"/>
-      <c r="Z55" s="246"/>
+      <c r="M55" s="251"/>
+      <c r="N55" s="251"/>
+      <c r="O55" s="251"/>
+      <c r="P55" s="251"/>
+      <c r="Q55" s="251"/>
+      <c r="R55" s="251"/>
+      <c r="S55" s="251"/>
+      <c r="T55" s="251"/>
+      <c r="U55" s="251"/>
+      <c r="V55" s="251"/>
+      <c r="W55" s="251"/>
+      <c r="X55" s="251"/>
+      <c r="Y55" s="251"/>
+      <c r="Z55" s="251"/>
     </row>
     <row r="56" spans="1:26" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A56" s="49"/>
@@ -39357,54 +39376,54 @@
         <v>42</v>
       </c>
       <c r="I56" s="249" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="J56" s="249" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K56" s="249" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L56" s="249" t="s">
-        <v>614</v>
-      </c>
-      <c r="M56" s="250" t="s">
+        <v>610</v>
+      </c>
+      <c r="M56" s="245" t="s">
+        <v>601</v>
+      </c>
+      <c r="N56" s="245" t="s">
+        <v>602</v>
+      </c>
+      <c r="O56" s="245" t="s">
+        <v>603</v>
+      </c>
+      <c r="P56" s="245" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q56" s="245" t="s">
+        <v>603</v>
+      </c>
+      <c r="R56" s="245">
+        <v>3</v>
+      </c>
+      <c r="S56" s="245" t="s">
+        <v>604</v>
+      </c>
+      <c r="T56" s="245" t="s">
+        <v>608</v>
+      </c>
+      <c r="U56" s="245"/>
+      <c r="V56" s="245" t="s">
+        <v>602</v>
+      </c>
+      <c r="W56" s="245"/>
+      <c r="X56" s="245" t="s">
         <v>605</v>
       </c>
-      <c r="N56" s="250" t="s">
-        <v>606</v>
-      </c>
-      <c r="O56" s="250" t="s">
-        <v>607</v>
-      </c>
-      <c r="P56" s="250" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q56" s="250" t="s">
-        <v>607</v>
-      </c>
-      <c r="R56" s="250">
-        <v>3</v>
-      </c>
-      <c r="S56" s="250" t="s">
-        <v>608</v>
-      </c>
-      <c r="T56" s="250" t="s">
-        <v>612</v>
-      </c>
-      <c r="U56" s="250"/>
-      <c r="V56" s="250" t="s">
-        <v>606</v>
-      </c>
-      <c r="W56" s="250"/>
-      <c r="X56" s="250" t="s">
-        <v>609</v>
-      </c>
-      <c r="Y56" s="250" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z56" s="250" t="s">
-        <v>609</v>
+      <c r="Y56" s="245" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z56" s="245" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="31.5" customHeight="1" outlineLevel="1">
@@ -39425,20 +39444,20 @@
       <c r="J57" s="252"/>
       <c r="K57" s="252"/>
       <c r="L57" s="252"/>
-      <c r="M57" s="251"/>
-      <c r="N57" s="251"/>
-      <c r="O57" s="251"/>
-      <c r="P57" s="251"/>
-      <c r="Q57" s="251"/>
-      <c r="R57" s="251"/>
-      <c r="S57" s="251"/>
-      <c r="T57" s="251"/>
-      <c r="U57" s="251"/>
-      <c r="V57" s="251"/>
-      <c r="W57" s="251"/>
-      <c r="X57" s="251"/>
-      <c r="Y57" s="251"/>
-      <c r="Z57" s="251"/>
+      <c r="M57" s="246"/>
+      <c r="N57" s="246"/>
+      <c r="O57" s="246"/>
+      <c r="P57" s="246"/>
+      <c r="Q57" s="246"/>
+      <c r="R57" s="246"/>
+      <c r="S57" s="246"/>
+      <c r="T57" s="246"/>
+      <c r="U57" s="246"/>
+      <c r="V57" s="246"/>
+      <c r="W57" s="246"/>
+      <c r="X57" s="246"/>
+      <c r="Y57" s="246"/>
+      <c r="Z57" s="246"/>
     </row>
     <row r="58" spans="1:26" ht="24.95" customHeight="1" outlineLevel="1">
       <c r="A58" s="49"/>
@@ -39623,7 +39642,7 @@
         <v>517</v>
       </c>
       <c r="J63" s="186" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K63" s="191" t="s">
         <v>495</v>
@@ -39781,7 +39800,7 @@
         <v>518</v>
       </c>
       <c r="J67" s="186" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K67" s="191" t="s">
         <v>496</v>
@@ -40051,6 +40070,7 @@
     <row r="75" spans="1:26" ht="24.95" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z74"/>
   <mergeCells count="189">
     <mergeCell ref="X35:X50"/>
     <mergeCell ref="Y35:Y50"/>
@@ -40077,6 +40097,9 @@
     <mergeCell ref="F43:F50"/>
     <mergeCell ref="F51:F58"/>
     <mergeCell ref="F59:F66"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
@@ -40092,6 +40115,15 @@
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="I3:I10"/>
+    <mergeCell ref="R19:R34"/>
+    <mergeCell ref="I67:I74"/>
+    <mergeCell ref="J67:J74"/>
+    <mergeCell ref="K67:K74"/>
+    <mergeCell ref="L67:L74"/>
+    <mergeCell ref="M67:M74"/>
+    <mergeCell ref="N67:N74"/>
+    <mergeCell ref="O67:O74"/>
+    <mergeCell ref="P67:P74"/>
     <mergeCell ref="U3:U10"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="J3:J10"/>
@@ -40121,7 +40153,6 @@
     <mergeCell ref="Z16:Z18"/>
     <mergeCell ref="Y19:Y34"/>
     <mergeCell ref="Z19:Z34"/>
-    <mergeCell ref="R19:R34"/>
     <mergeCell ref="S19:S34"/>
     <mergeCell ref="T19:T34"/>
     <mergeCell ref="U19:U34"/>
@@ -40133,14 +40164,6 @@
     <mergeCell ref="U16:U18"/>
     <mergeCell ref="V16:V18"/>
     <mergeCell ref="W16:W18"/>
-    <mergeCell ref="I67:I74"/>
-    <mergeCell ref="J67:J74"/>
-    <mergeCell ref="K67:K74"/>
-    <mergeCell ref="L67:L74"/>
-    <mergeCell ref="M67:M74"/>
-    <mergeCell ref="N67:N74"/>
-    <mergeCell ref="O67:O74"/>
-    <mergeCell ref="P67:P74"/>
     <mergeCell ref="Q67:Q74"/>
     <mergeCell ref="R67:R74"/>
     <mergeCell ref="S67:S74"/>
@@ -40174,17 +40197,6 @@
     <mergeCell ref="K51:K53"/>
     <mergeCell ref="L51:L53"/>
     <mergeCell ref="M51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="T51:T53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:V53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="X51:X53"/>
     <mergeCell ref="Y51:Y53"/>
     <mergeCell ref="Z51:Z53"/>
     <mergeCell ref="I63:I66"/>
@@ -40207,11 +40219,8 @@
     <mergeCell ref="Z63:Z66"/>
     <mergeCell ref="I56:I57"/>
     <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="O51:O53"/>
     <mergeCell ref="P56:P57"/>
     <mergeCell ref="Q56:Q57"/>
     <mergeCell ref="R56:R57"/>
@@ -40219,6 +40228,15 @@
     <mergeCell ref="T56:T57"/>
     <mergeCell ref="U56:U57"/>
     <mergeCell ref="V56:V57"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="T51:T53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:V53"/>
     <mergeCell ref="W56:W57"/>
     <mergeCell ref="X56:X57"/>
     <mergeCell ref="Y56:Y57"/>
@@ -40241,6 +40259,8 @@
     <mergeCell ref="X54:X55"/>
     <mergeCell ref="Y54:Y55"/>
     <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -40257,7 +40277,7 @@
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="V7" sqref="V7:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -40793,7 +40813,7 @@
         <v>401</v>
       </c>
       <c r="L14" s="155" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M14" s="153" t="s">
         <v>391</v>
@@ -40857,7 +40877,7 @@
         <v>400</v>
       </c>
       <c r="L15" s="155" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M15" s="153" t="s">
         <v>391</v>
@@ -43029,6 +43049,7 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:26" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="V7:Z10"/>
   <mergeCells count="156">
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="J11:J13"/>

--- a/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
+++ b/01需求分析/docs/specs/01自动驾驶专案CAN Matrix-VAD01-20180316.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1170" windowWidth="23910" windowHeight="14925" tabRatio="853" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="9120" yWindow="1230" windowWidth="19440" windowHeight="14865" tabRatio="853" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'MCU_241 50ms'!$A$1:$AB$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Parameter declaration'!$A$2:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -4224,10 +4224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>APU_ReqControlMCU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>APU_ReqControlMCUValid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4285,10 +4281,6 @@
   </si>
   <si>
     <t>APU报文校验和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APU_ReqControlEPBValid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4878,20 +4870,6 @@
   </si>
   <si>
     <t>0x3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0 = No request
-0x1 = Release park Baake
-0x2 = Apply park Baake
-0x3 = Not  used</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0 = No request
-0x1 = Release park Baake
-0x2 = Apply park Baake
-0x3 = Not  used</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5249,6 +5227,26 @@
 0x3: P (Park)        驻车挡
 0x4: Fail            不可用
 0x5~0x7: reserved    保留位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0 = No request
+0x1 = Release park Brake
+0x2 = Apply park Brake
+0x3 = Not  used</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_ReqControlMCU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APU_ReqControlEPBValid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: Invalid
+1: Valid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12465,6 +12463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12883,10 +12882,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -13343,7 +13343,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="192" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="J12" s="187" t="s">
         <v>337</v>
@@ -13548,7 +13548,7 @@
         <v>375</v>
       </c>
       <c r="L16" s="192" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M16" s="196" t="s">
         <v>320</v>
@@ -15791,6 +15791,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -16163,10 +16164,10 @@
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1">
       <c r="A11" s="230" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B11" s="233" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C11" s="236" t="s">
         <v>287</v>
@@ -16326,13 +16327,13 @@
         <v>401</v>
       </c>
       <c r="J15" s="162" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="K15" s="164" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L15" s="164" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M15" s="178" t="s">
         <v>388</v>
@@ -16384,13 +16385,13 @@
         <v>400</v>
       </c>
       <c r="J16" s="162" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K16" s="164" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L16" s="164" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M16" s="178" t="s">
         <v>388</v>
@@ -16439,16 +16440,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="250" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J17" s="191" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K17" s="192" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L17" s="192" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="M17" s="195" t="s">
         <v>403</v>
@@ -18452,6 +18453,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -21122,6 +21124,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -23796,6 +23799,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -26554,6 +26558,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -28800,6 +28805,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -31198,6 +31204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31366,6 +31373,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
@@ -31666,6 +31674,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -31791,7 +31800,7 @@
         <v>201</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="15"/>
@@ -31813,7 +31822,7 @@
         <v>202</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="15"/>
@@ -32162,13 +32171,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D24" s="170" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
@@ -32237,10 +32246,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32499,7 +32509,7 @@
       <c r="R7" s="20"/>
       <c r="T7" s="137"/>
       <c r="U7" s="142" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V7" s="143" t="s">
         <v>241</v>
@@ -32607,7 +32617,7 @@
       <c r="R10" s="20"/>
       <c r="T10" s="137"/>
       <c r="U10" s="142" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V10" s="143" t="s">
         <v>241</v>
@@ -32643,7 +32653,7 @@
       <c r="R11" s="21"/>
       <c r="T11" s="137"/>
       <c r="U11" s="142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V11" s="143" t="s">
         <v>241</v>
@@ -32679,7 +32689,7 @@
       <c r="R12" s="20"/>
       <c r="T12" s="137"/>
       <c r="U12" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="V12" s="143" t="s">
         <v>241</v>
@@ -32715,7 +32725,7 @@
       <c r="R13" s="20"/>
       <c r="T13" s="137"/>
       <c r="U13" s="142" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="V13" s="143" t="s">
         <v>241</v>
@@ -32751,7 +32761,7 @@
       <c r="R14" s="20"/>
       <c r="T14" s="137"/>
       <c r="U14" s="142" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="V14" s="143" t="s">
         <v>241</v>
@@ -32787,7 +32797,7 @@
       <c r="R15" s="20"/>
       <c r="T15" s="137"/>
       <c r="U15" s="142" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="V15" s="143" t="s">
         <v>241</v>
@@ -32823,7 +32833,7 @@
       <c r="R16" s="20"/>
       <c r="T16" s="137"/>
       <c r="U16" s="142" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="V16" s="143" t="s">
         <v>241</v>
@@ -32859,7 +32869,7 @@
       <c r="R17" s="19"/>
       <c r="T17" s="137"/>
       <c r="U17" s="142" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V17" s="143" t="s">
         <v>241</v>
@@ -32895,7 +32905,7 @@
       </c>
       <c r="T18" s="137"/>
       <c r="U18" s="142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V18" s="143" t="s">
         <v>241</v>
@@ -32912,7 +32922,7 @@
     <row r="19" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T19" s="137"/>
       <c r="U19" s="136" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V19" s="143" t="s">
         <v>241</v>
@@ -32922,7 +32932,7 @@
         <v>242</v>
       </c>
       <c r="Y19" s="159" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z19" s="143" t="s">
         <v>245</v>
@@ -32931,7 +32941,7 @@
     <row r="20" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T20" s="137"/>
       <c r="U20" s="136" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="V20" s="143" t="s">
         <v>241</v>
@@ -32950,7 +32960,7 @@
     <row r="21" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T21" s="137"/>
       <c r="U21" s="136" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V21" s="143" t="s">
         <v>241</v>
@@ -32971,7 +32981,7 @@
     <row r="22" spans="2:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T22" s="137"/>
       <c r="U22" s="136" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V22" s="143" t="s">
         <v>241</v>
@@ -33168,7 +33178,7 @@
     <row r="33" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T33" s="135"/>
       <c r="U33" s="136" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="V33" s="143" t="s">
         <v>242</v>
@@ -33291,13 +33301,13 @@
         <v>500</v>
       </c>
       <c r="U40" s="145" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="V40" s="143" t="s">
         <v>242</v>
       </c>
       <c r="W40" s="159" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="X40" s="143" t="s">
         <v>243</v>
@@ -33346,7 +33356,7 @@
     <row r="43" spans="20:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="T43" s="138"/>
       <c r="U43" s="145" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="V43" s="143" t="s">
         <v>242</v>
@@ -33487,7 +33497,7 @@
         <v>242</v>
       </c>
       <c r="W50" s="159" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="X50" s="144" t="s">
         <v>269</v>
@@ -33722,6 +33732,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34379,10 +34390,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D4" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -34779,10 +34791,10 @@
         <v>504</v>
       </c>
       <c r="J11" s="162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L11" s="164" t="s">
         <v>399</v>
@@ -34818,7 +34830,7 @@
       <c r="W11" s="165"/>
       <c r="X11" s="165"/>
       <c r="Y11" s="165" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z11" s="165" t="s">
         <v>406</v>
@@ -34843,10 +34855,10 @@
         <v>502</v>
       </c>
       <c r="J12" s="162" t="s">
-        <v>506</v>
+        <v>625</v>
       </c>
       <c r="K12" s="164" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L12" s="164" t="s">
         <v>477</v>
@@ -34882,7 +34894,7 @@
       <c r="W12" s="165"/>
       <c r="X12" s="165"/>
       <c r="Y12" s="165" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z12" s="165" t="s">
         <v>406</v>
@@ -35038,7 +35050,7 @@
         <v>455</v>
       </c>
       <c r="K15" s="192" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L15" s="192" t="s">
         <v>470</v>
@@ -35238,16 +35250,16 @@
         <v>15</v>
       </c>
       <c r="I19" s="164" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J19" s="162" t="s">
-        <v>516</v>
+        <v>626</v>
       </c>
       <c r="K19" s="164" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L19" s="164" t="s">
-        <v>399</v>
+        <v>627</v>
       </c>
       <c r="M19" s="165" t="s">
         <v>403</v>
@@ -35279,7 +35291,7 @@
       </c>
       <c r="W19" s="165"/>
       <c r="X19" s="165" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Y19" s="165"/>
       <c r="Z19" s="165" t="s">
@@ -35301,13 +35313,13 @@
         <v>14</v>
       </c>
       <c r="I20" s="164" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J20" s="162" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K20" s="164" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L20" s="164" t="s">
         <v>477</v>
@@ -35342,7 +35354,7 @@
       </c>
       <c r="W20" s="165"/>
       <c r="X20" s="165" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y20" s="165"/>
       <c r="Z20" s="165" t="s">
@@ -35364,13 +35376,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="164" t="s">
+        <v>554</v>
+      </c>
+      <c r="J21" s="162" t="s">
         <v>556</v>
       </c>
-      <c r="J21" s="162" t="s">
-        <v>558</v>
-      </c>
       <c r="K21" s="164" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L21" s="164" t="s">
         <v>399</v>
@@ -35406,7 +35418,7 @@
       <c r="W21" s="169"/>
       <c r="X21" s="169"/>
       <c r="Y21" s="169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z21" s="169" t="s">
         <v>406</v>
@@ -35427,13 +35439,13 @@
         <v>12</v>
       </c>
       <c r="I22" s="164" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J22" s="162" t="s">
+        <v>557</v>
+      </c>
+      <c r="K22" s="164" t="s">
         <v>559</v>
-      </c>
-      <c r="K22" s="164" t="s">
-        <v>561</v>
       </c>
       <c r="L22" s="164" t="s">
         <v>477</v>
@@ -35469,7 +35481,7 @@
       <c r="W22" s="169"/>
       <c r="X22" s="169"/>
       <c r="Y22" s="169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z22" s="169" t="s">
         <v>406</v>
@@ -35490,7 +35502,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="187" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J23" s="187" t="s">
         <v>494</v>
@@ -35528,13 +35540,13 @@
         <v>110</v>
       </c>
       <c r="W23" s="195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X23" s="195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Y23" s="195" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Z23" s="195" t="s">
         <v>102</v>
@@ -35655,7 +35667,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="187" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J27" s="187" t="s">
         <v>495</v>
@@ -35693,13 +35705,13 @@
         <v>110</v>
       </c>
       <c r="W27" s="196" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="X27" s="196" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Y27" s="196" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Z27" s="196" t="s">
         <v>102</v>
@@ -35952,10 +35964,10 @@
         <v>31</v>
       </c>
       <c r="I35" s="192" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J35" s="192" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K35" s="190" t="s">
         <v>490</v>
@@ -36248,7 +36260,7 @@
       </c>
       <c r="I43" s="193"/>
       <c r="J43" s="187" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K43" s="190" t="s">
         <v>491</v>
@@ -36516,7 +36528,7 @@
         <v>47</v>
       </c>
       <c r="I51" s="195" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J51" s="195"/>
       <c r="K51" s="195"/>
@@ -37456,10 +37468,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F46" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -37988,19 +38001,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="175" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J15" s="162" t="s">
+        <v>531</v>
+      </c>
+      <c r="K15" s="162" t="s">
+        <v>532</v>
+      </c>
+      <c r="L15" s="164" t="s">
+        <v>584</v>
+      </c>
+      <c r="M15" s="176" t="s">
         <v>533</v>
-      </c>
-      <c r="K15" s="162" t="s">
-        <v>534</v>
-      </c>
-      <c r="L15" s="164" t="s">
-        <v>586</v>
-      </c>
-      <c r="M15" s="176" t="s">
-        <v>535</v>
       </c>
       <c r="N15" s="176" t="s">
         <v>110</v>
@@ -38030,7 +38043,7 @@
       <c r="W15" s="176"/>
       <c r="X15" s="176"/>
       <c r="Y15" s="176" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z15" s="176" t="s">
         <v>246</v>
@@ -38052,16 +38065,16 @@
         <v>2</v>
       </c>
       <c r="I16" s="248" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J16" s="248" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K16" s="255" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L16" s="250" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M16" s="196" t="s">
         <v>320</v>
@@ -38073,7 +38086,7 @@
         <v>321</v>
       </c>
       <c r="P16" s="196" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="196" t="s">
         <v>321</v>
@@ -38085,7 +38098,7 @@
         <v>327</v>
       </c>
       <c r="T16" s="196" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="U16" s="196"/>
       <c r="V16" s="251" t="s">
@@ -38094,7 +38107,7 @@
       <c r="W16" s="251"/>
       <c r="X16" s="251"/>
       <c r="Y16" s="251" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z16" s="251" t="s">
         <v>246</v>
@@ -38186,13 +38199,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="250" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J19" s="196" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K19" s="187" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L19" s="196" t="s">
         <v>117</v>
@@ -38207,7 +38220,7 @@
         <v>115</v>
       </c>
       <c r="P19" s="196" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q19" s="251">
         <v>0</v>
@@ -38216,22 +38229,22 @@
         <v>10000</v>
       </c>
       <c r="S19" s="251" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="T19" s="251" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="U19" s="251"/>
       <c r="V19" s="251" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W19" s="251"/>
       <c r="X19" s="251"/>
       <c r="Y19" s="251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Z19" s="251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
@@ -38746,13 +38759,13 @@
         <v>31</v>
       </c>
       <c r="I35" s="250" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J35" s="196" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K35" s="187" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L35" s="196" t="s">
         <v>136</v>
@@ -38776,22 +38789,22 @@
         <v>1000</v>
       </c>
       <c r="S35" s="251" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T35" s="251" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="U35" s="251"/>
       <c r="V35" s="251" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W35" s="251"/>
       <c r="X35" s="251"/>
       <c r="Y35" s="251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Z35" s="251" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="22.5" customHeight="1" outlineLevel="1">
@@ -39306,52 +39319,52 @@
         <v>47</v>
       </c>
       <c r="I51" s="250" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J51" s="196" t="s">
+        <v>570</v>
+      </c>
+      <c r="K51" s="187" t="s">
+        <v>571</v>
+      </c>
+      <c r="L51" s="192" t="s">
+        <v>623</v>
+      </c>
+      <c r="M51" s="196" t="s">
         <v>572</v>
       </c>
-      <c r="K51" s="187" t="s">
+      <c r="N51" s="196" t="s">
+        <v>576</v>
+      </c>
+      <c r="O51" s="196" t="s">
         <v>573</v>
       </c>
-      <c r="L51" s="192" t="s">
-        <v>627</v>
-      </c>
-      <c r="M51" s="196" t="s">
-        <v>574</v>
-      </c>
-      <c r="N51" s="196" t="s">
+      <c r="P51" s="196" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q51" s="196" t="s">
+        <v>573</v>
+      </c>
+      <c r="R51" s="196" t="s">
         <v>578</v>
       </c>
-      <c r="O51" s="196" t="s">
+      <c r="S51" s="196" t="s">
         <v>575</v>
       </c>
-      <c r="P51" s="196" t="s">
+      <c r="T51" s="196" t="s">
         <v>579</v>
-      </c>
-      <c r="Q51" s="196" t="s">
-        <v>575</v>
-      </c>
-      <c r="R51" s="196" t="s">
-        <v>580</v>
-      </c>
-      <c r="S51" s="196" t="s">
-        <v>577</v>
-      </c>
-      <c r="T51" s="196" t="s">
-        <v>581</v>
       </c>
       <c r="U51" s="196"/>
       <c r="V51" s="196" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W51" s="196"/>
       <c r="X51" s="196"/>
       <c r="Y51" s="196" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z51" s="196" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="29.25" customHeight="1" outlineLevel="1">
@@ -39435,54 +39448,54 @@
         <v>44</v>
       </c>
       <c r="I54" s="248" t="s">
+        <v>583</v>
+      </c>
+      <c r="J54" s="248" t="s">
         <v>585</v>
       </c>
-      <c r="J54" s="248" t="s">
-        <v>587</v>
-      </c>
       <c r="K54" s="248" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L54" s="250" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="M54" s="251" t="s">
+        <v>595</v>
+      </c>
+      <c r="N54" s="251" t="s">
+        <v>596</v>
+      </c>
+      <c r="O54" s="251" t="s">
         <v>597</v>
       </c>
-      <c r="N54" s="251" t="s">
+      <c r="P54" s="251" t="s">
         <v>598</v>
       </c>
-      <c r="O54" s="251" t="s">
-        <v>599</v>
-      </c>
-      <c r="P54" s="251" t="s">
-        <v>600</v>
-      </c>
       <c r="Q54" s="251" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R54" s="251">
         <v>3</v>
       </c>
       <c r="S54" s="251" t="s">
+        <v>598</v>
+      </c>
+      <c r="T54" s="251" t="s">
         <v>600</v>
-      </c>
-      <c r="T54" s="251" t="s">
-        <v>602</v>
       </c>
       <c r="U54" s="251"/>
       <c r="V54" s="251" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="W54" s="251"/>
       <c r="X54" s="251" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Y54" s="251" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z54" s="251" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="33" customHeight="1" outlineLevel="1">
@@ -39533,54 +39546,54 @@
         <v>42</v>
       </c>
       <c r="I56" s="250" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J56" s="250" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K56" s="250" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L56" s="250" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="M56" s="246" t="s">
+        <v>595</v>
+      </c>
+      <c r="N56" s="246" t="s">
+        <v>596</v>
+      </c>
+      <c r="O56" s="246" t="s">
         <v>597</v>
       </c>
-      <c r="N56" s="246" t="s">
-        <v>598</v>
-      </c>
-      <c r="O56" s="246" t="s">
-        <v>599</v>
-      </c>
       <c r="P56" s="246" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q56" s="246" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R56" s="246">
         <v>3</v>
       </c>
       <c r="S56" s="246" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T56" s="246" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="U56" s="246"/>
       <c r="V56" s="246" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="W56" s="246"/>
       <c r="X56" s="246" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Y56" s="246" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z56" s="246" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="31.5" customHeight="1" outlineLevel="1">
@@ -39796,10 +39809,10 @@
         <v>51</v>
       </c>
       <c r="I63" s="187" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J63" s="187" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K63" s="192" t="s">
         <v>492</v>
@@ -39831,16 +39844,16 @@
       </c>
       <c r="U63" s="196"/>
       <c r="V63" s="196" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="W63" s="195" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="X63" s="195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Y63" s="195" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Z63" s="195" t="s">
         <v>102</v>
@@ -39958,10 +39971,10 @@
         <v>63</v>
       </c>
       <c r="I67" s="187" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J67" s="187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K67" s="192" t="s">
         <v>493</v>
@@ -39996,13 +40009,13 @@
         <v>110</v>
       </c>
       <c r="W67" s="196" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="X67" s="196" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Y67" s="196" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Z67" s="196" t="s">
         <v>102</v>
@@ -40439,10 +40452,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:T15"/>
+      <selection activeCell="I19" sqref="I19:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -40978,7 +40992,7 @@
         <v>398</v>
       </c>
       <c r="L14" s="155" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M14" s="153" t="s">
         <v>388</v>
@@ -41042,7 +41056,7 @@
         <v>397</v>
       </c>
       <c r="L15" s="155" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M15" s="153" t="s">
         <v>388</v>
